--- a/Tables/NN_parameters.xlsx
+++ b/Tables/NN_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\NN_molecular_communications\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2C0289-7FBB-4003-8D21-0940E54B8C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A1F74C-F24A-4E2B-A40A-5A01981F881B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="3" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="NN_parameters_full" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">complexity_vs_performance_num!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">complexity_vs_performance_num!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">detection_environments_num!$A$1:$M$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="543">
   <si>
     <t>End-to-end channel-related parameters</t>
   </si>
@@ -663,9 +663,6 @@
     <t>\numrange[range-phrase=~to~]{2}{5}</t>
   </si>
   <si>
-    <t>\numrange[range-phrase=~to~]{2}{14}</t>
-  </si>
-  <si>
     <t>\numrange[range-phrase=~to~]{0}{60}</t>
   </si>
   <si>
@@ -711,9 +708,6 @@
     <t>\numrange[range-phrase=\text{~to~}]{2e-1}{e-4}</t>
   </si>
   <si>
-    <t>\numrange[range-phrase=\text{~to~}]{3e-1}{2e-5}</t>
-  </si>
-  <si>
     <t>\numrange[range-phrase=\text{~to~}]{5e-2}{e-6}</t>
   </si>
   <si>
@@ -1584,9 +1578,6 @@
     <t>\raisebox{-\totalheight}{\mycell{\acs{NN} arch.}}</t>
   </si>
   <si>
-    <t>\textcolor{red cite{ torres-gomez2024dna-baseddna</t>
-  </si>
-  <si>
     <t>\cite{ torres-gomez2024dna-based}</t>
   </si>
   <si>
@@ -1626,9 +1617,6 @@
     <t>10 to 35</t>
   </si>
   <si>
-    <t>e-2 to e-6</t>
-  </si>
-  <si>
     <t>3e-1 to e-4</t>
   </si>
   <si>
@@ -1675,13 +1663,28 @@
   </si>
   <si>
     <t>\numlist{10;3;1}</t>
+  </si>
+  <si>
+    <t>\numrange[range-phrase=\text{~to~}]{3e-1}{7e-6}</t>
+  </si>
+  <si>
+    <t>\numrange[range-phrase=~to~]{2}{20}</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>\cite{qian2018molecular}</t>
+  </si>
+  <si>
+    <t>[9;4]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,6 +1751,13 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2397,7 +2407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="578">
+  <cellXfs count="584">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3639,9 +3649,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3915,6 +3922,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4103,6 +4113,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4357,7 +4385,7 @@
   <dimension ref="A1:AA1021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4399,23 +4427,23 @@
     </row>
     <row r="2" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="246" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B2" s="247"/>
-      <c r="C2" s="462" t="s">
-        <v>505</v>
-      </c>
-      <c r="D2" s="458" t="s">
-        <v>498</v>
+      <c r="C2" s="461" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" s="457" t="s">
+        <v>496</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>193</v>
@@ -4424,14 +4452,14 @@
         <v>3</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K2" s="248" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L2" s="248"/>
       <c r="M2" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -4457,10 +4485,10 @@
         <v>143</v>
       </c>
       <c r="D3" s="222" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>43</v>
@@ -4480,7 +4508,7 @@
         <v>161</v>
       </c>
       <c r="M3" s="109" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -4503,10 +4531,10 @@
       <c r="C4" s="236"/>
       <c r="D4" s="201"/>
       <c r="E4" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="197" t="s">
         <v>198</v>
@@ -4520,7 +4548,7 @@
         <v>136</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M4" s="110" t="s">
         <v>187</v>
@@ -4546,10 +4574,10 @@
       <c r="C5" s="236"/>
       <c r="D5" s="202"/>
       <c r="E5" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="G5" s="199"/>
       <c r="H5" s="196"/>
@@ -4604,7 +4632,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M6" s="239" t="s">
         <v>7</v>
@@ -4639,9 +4667,9 @@
       <c r="J7" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="K7" s="502"/>
+      <c r="K7" s="501"/>
       <c r="L7" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M7" s="240"/>
       <c r="N7" s="2"/>
@@ -4674,7 +4702,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>98</v>
@@ -4682,9 +4710,9 @@
       <c r="J8" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K8" s="502"/>
+      <c r="K8" s="501"/>
       <c r="L8" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M8" s="111" t="s">
         <v>15</v>
@@ -4705,17 +4733,17 @@
         <v>107</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="K9" s="503"/>
-      <c r="L9" s="4" t="s">
-        <v>220</v>
+      <c r="J9" s="580" t="s">
+        <v>539</v>
+      </c>
+      <c r="K9" s="502"/>
+      <c r="L9" s="579" t="s">
+        <v>538</v>
       </c>
       <c r="M9" s="113" t="s">
         <v>18</v>
@@ -4762,7 +4790,7 @@
         <v>66</v>
       </c>
       <c r="E11" s="232" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" s="232" t="s">
         <v>43</v>
@@ -4781,7 +4809,7 @@
         <v>62</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M11" s="257" t="s">
         <v>57</v>
@@ -4802,7 +4830,7 @@
         <v>63</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M12" s="259"/>
     </row>
@@ -4814,7 +4842,7 @@
       </c>
       <c r="D13" s="192"/>
       <c r="E13" s="232" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13" s="232" t="s">
         <v>43</v>
@@ -4833,7 +4861,7 @@
         <v>62</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M13" s="257" t="s">
         <v>57</v>
@@ -4854,7 +4882,7 @@
         <v>63</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M14" s="258"/>
     </row>
@@ -4868,7 +4896,7 @@
         <v>149</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>16</v>
@@ -4885,7 +4913,7 @@
         <v>4</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M15" s="111" t="s">
         <v>154</v>
@@ -4899,24 +4927,24 @@
       </c>
       <c r="D16" s="192"/>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="91" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K16" s="502"/>
+        <v>204</v>
+      </c>
+      <c r="K16" s="501"/>
       <c r="L16" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M16" s="113" t="s">
         <v>10</v>
@@ -4930,7 +4958,7 @@
       </c>
       <c r="D17" s="192"/>
       <c r="E17" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
@@ -4939,17 +4967,17 @@
         <v>20</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K17" s="502"/>
+        <v>205</v>
+      </c>
+      <c r="K17" s="501"/>
       <c r="L17" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M17" s="113" t="s">
         <v>110</v>
@@ -4962,7 +4990,7 @@
       <c r="B18" s="229"/>
       <c r="C18" s="204"/>
       <c r="D18" s="192"/>
-      <c r="E18" s="498" t="s">
+      <c r="E18" s="497" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
@@ -4978,11 +5006,11 @@
         <v>14</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="K18" s="502"/>
+        <v>206</v>
+      </c>
+      <c r="K18" s="501"/>
       <c r="L18" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M18" s="114" t="s">
         <v>23</v>
@@ -4995,23 +5023,23 @@
         <v>153</v>
       </c>
       <c r="D19" s="192"/>
-      <c r="E19" s="459" t="s">
+      <c r="E19" s="458" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="459"/>
-      <c r="G19" s="497" t="s">
+      <c r="F19" s="458"/>
+      <c r="G19" s="496" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="499"/>
-      <c r="I19" s="499" t="s">
-        <v>508</v>
-      </c>
-      <c r="J19" s="499" t="s">
-        <v>391</v>
-      </c>
-      <c r="K19" s="503"/>
+      <c r="H19" s="498"/>
+      <c r="I19" s="498" t="s">
+        <v>506</v>
+      </c>
+      <c r="J19" s="498" t="s">
+        <v>389</v>
+      </c>
+      <c r="K19" s="502"/>
       <c r="L19" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M19" s="115" t="s">
         <v>160</v>
@@ -5031,7 +5059,7 @@
         <v>185</v>
       </c>
       <c r="E20" s="184" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F20" s="184"/>
       <c r="G20" s="407" t="s">
@@ -5049,11 +5077,11 @@
       <c r="K20" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="460" t="s">
+      <c r="L20" s="459" t="s">
         <v>179</v>
       </c>
-      <c r="M20" s="429" t="s">
-        <v>486</v>
+      <c r="M20" s="428" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5071,7 +5099,7 @@
         <v>180</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M21" s="187"/>
     </row>
@@ -5098,7 +5126,7 @@
         <v>4</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M22" s="114" t="s">
         <v>25</v>
@@ -5165,12 +5193,12 @@
       <c r="G24" s="89"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="186"/>
       <c r="L24" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M24" s="116" t="s">
         <v>38</v>
@@ -5199,7 +5227,7 @@
       <c r="L25" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="M25" s="424" t="s">
+      <c r="M25" s="423" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5222,7 +5250,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M26" s="111" t="s">
         <v>26</v>
@@ -5235,10 +5263,10 @@
       </c>
       <c r="C27" s="224"/>
       <c r="D27" s="80" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="91"/>
@@ -5269,7 +5297,7 @@
       <c r="E28" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="459"/>
+      <c r="F28" s="458"/>
       <c r="G28" s="91" t="s">
         <v>168</v>
       </c>
@@ -5277,7 +5305,7 @@
         <v>169</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>167</v>
@@ -5289,12 +5317,12 @@
         <v>156</v>
       </c>
       <c r="M28" s="111" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="518" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B29" s="519"/>
       <c r="C29" s="203" t="s">
@@ -5317,11 +5345,11 @@
         <v>35</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="K29" s="461"/>
+        <v>524</v>
+      </c>
+      <c r="K29" s="460"/>
       <c r="L29" s="530" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M29" s="116" t="s">
         <v>36</v>
@@ -5342,7 +5370,7 @@
       <c r="J30" s="14"/>
       <c r="K30" s="196"/>
       <c r="L30" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M30" s="111" t="s">
         <v>32</v>
@@ -5357,7 +5385,7 @@
         <v>181</v>
       </c>
       <c r="D31" s="86" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E31" s="65"/>
       <c r="F31" s="65"/>
@@ -5369,7 +5397,7 @@
         <v>136</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M31" s="119" t="s">
         <v>146</v>
@@ -5382,8 +5410,8 @@
       <c r="D32" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="500" t="s">
-        <v>515</v>
+      <c r="E32" s="499" t="s">
+        <v>512</v>
       </c>
       <c r="F32" s="61"/>
       <c r="G32" s="97"/>
@@ -5399,7 +5427,7 @@
         <v>147</v>
       </c>
       <c r="M32" s="120" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6487,11 +6515,11 @@
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="175" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="174"/>
       <c r="C1" s="105" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D1" s="81" t="s">
         <v>41</v>
@@ -6503,19 +6531,19 @@
         <v>2</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K1" s="248" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L1" s="248"/>
       <c r="M1" s="108" t="s">
@@ -6538,23 +6566,23 @@
     </row>
     <row r="2" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" s="129"/>
       <c r="C2" s="127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" s="142" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G2" s="88" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H2" s="59">
         <v>200</v>
@@ -6565,7 +6593,7 @@
         <v>64</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M2" s="109" t="s">
         <v>162</v>
@@ -6587,23 +6615,23 @@
     </row>
     <row r="3" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="130"/>
       <c r="C3" s="127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D3" s="142" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G3" s="132" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H3" s="145">
         <v>3000</v>
@@ -6611,10 +6639,10 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="146" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M3" s="110" t="s">
         <v>187</v>
@@ -6636,21 +6664,21 @@
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="130"/>
       <c r="C4" s="127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D4" s="142" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G4" s="132" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H4" s="145">
         <v>3000</v>
@@ -6658,10 +6686,10 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="146" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M4" s="110" t="s">
         <v>137</v>
@@ -6683,36 +6711,36 @@
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" s="130"/>
       <c r="C5" s="127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E5" s="241" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F5" s="241" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G5" s="148">
         <v>0.42</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K5" s="147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M5" s="149" t="s">
         <v>7</v>
@@ -6734,14 +6762,14 @@
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" s="130"/>
       <c r="C6" s="127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D6" s="141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E6" s="242"/>
       <c r="F6" s="242"/>
@@ -6750,16 +6778,16 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K6" s="147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M6" s="149" t="s">
         <v>7</v>
@@ -6781,116 +6809,116 @@
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B7" s="130"/>
       <c r="C7" s="127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D7" s="141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G7" s="89">
         <v>1.01</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K7" s="147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M7" s="111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B8" s="130"/>
       <c r="C8" s="127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" s="141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G8" s="89">
         <v>1.01</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K8" s="147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M8" s="111" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" s="130"/>
       <c r="C9" s="127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G9" s="89">
         <v>1.01</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K9" s="147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M9" s="111" t="s">
         <v>101</v>
@@ -6898,36 +6926,36 @@
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B10" s="130"/>
       <c r="C10" s="127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D10" s="84" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G10" s="176">
         <v>0.79</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="177" t="s">
         <v>64</v>
       </c>
       <c r="L10" s="125" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M10" s="178" t="s">
         <v>53</v>
@@ -6935,36 +6963,36 @@
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="154" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B11" s="130"/>
       <c r="C11" s="127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11" s="143" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E11" s="153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F11" s="153" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G11" s="152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J11" s="151">
         <v>25</v>
       </c>
       <c r="K11" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M11" s="179" t="s">
         <v>57</v>
@@ -6972,38 +7000,38 @@
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" s="130"/>
       <c r="C12" s="127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" s="143" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G12" s="91">
         <v>0.06</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K12" s="155" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M12" s="113" t="s">
         <v>18</v>
@@ -7011,36 +7039,36 @@
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="154" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B13" s="130"/>
       <c r="C13" s="180" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13" s="143" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E13" s="153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F13" s="153" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G13" s="152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H13" s="181"/>
       <c r="I13" s="182" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J13" s="183">
         <v>25</v>
       </c>
       <c r="K13" s="150" t="s">
+        <v>329</v>
+      </c>
+      <c r="L13" s="40" t="s">
         <v>331</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>333</v>
       </c>
       <c r="M13" s="179" t="s">
         <v>57</v>
@@ -7048,34 +7076,34 @@
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B14" s="130"/>
       <c r="C14" s="101" t="s">
         <v>153</v>
       </c>
       <c r="D14" s="141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G14" s="176">
         <v>0.79</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="16"/>
       <c r="K14" s="98" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M14" s="111" t="s">
         <v>154</v>
@@ -7083,36 +7111,36 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B15" s="130"/>
       <c r="C15" s="102" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D15" s="141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="91">
         <v>1</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K15" s="160" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M15" s="113" t="s">
         <v>10</v>
@@ -7120,80 +7148,80 @@
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B16" s="131"/>
       <c r="C16" s="163" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G16" s="91">
         <v>5</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K16" s="160" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M16" s="113" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" s="131"/>
       <c r="C17" s="163" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G17" s="91">
         <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K17" s="160" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M17" s="113" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7205,13 +7233,13 @@
         <v>19</v>
       </c>
       <c r="D18" s="141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G18" s="92">
         <v>0.79</v>
@@ -7220,16 +7248,16 @@
         <v>4000</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K18" s="160" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M18" s="114" t="s">
         <v>23</v>
@@ -7244,10 +7272,10 @@
         <v>153</v>
       </c>
       <c r="D19" s="141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="122">
@@ -7255,16 +7283,16 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K19" s="160" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M19" s="114" t="s">
         <v>160</v>
@@ -7272,36 +7300,36 @@
     </row>
     <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B20" s="139" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C20" s="163" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D20" s="99" t="s">
         <v>185</v>
       </c>
       <c r="E20" s="161" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F20" s="161"/>
       <c r="G20" s="162">
         <v>0.1</v>
       </c>
       <c r="H20" s="161" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I20" s="160" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="158" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M20" s="159" t="s">
         <v>176</v>
@@ -7309,32 +7337,32 @@
     </row>
     <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="132" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B21" s="139" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C21" s="100" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E21" s="144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="92"/>
       <c r="H21" s="6"/>
       <c r="I21" s="144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M21" s="114" t="s">
         <v>25</v>
@@ -7356,29 +7384,29 @@
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="132" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B22" s="139" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C22" s="163" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E22" s="144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="93"/>
       <c r="H22" s="46"/>
       <c r="I22" s="144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J22" s="52"/>
       <c r="K22" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L22" s="123">
         <v>7.3999999999999996E-2</v>
@@ -7403,65 +7431,65 @@
     </row>
     <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="132" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B23" s="139" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C23" s="163" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="89"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M23" s="116" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="132" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B24" s="139" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" s="163" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D24" s="99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="89"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M24" s="116" t="s">
         <v>124</v>
@@ -7469,32 +7497,32 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="140" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B25" s="141" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C25" s="103" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D25" s="99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="94"/>
       <c r="H25" s="13"/>
       <c r="I25" s="54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J25" s="63"/>
       <c r="K25" s="18" t="s">
         <v>134</v>
       </c>
       <c r="L25" s="54" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M25" s="117" t="s">
         <v>29</v>
@@ -7502,30 +7530,30 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="140" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B26" s="141" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C26" s="173" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D26" s="99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="95"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M26" s="111" t="s">
         <v>26</v>
@@ -7533,29 +7561,29 @@
     </row>
     <row r="27" spans="1:27" s="106" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="167" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" s="168" t="s">
         <v>165</v>
       </c>
       <c r="C27" s="173" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D27" s="169" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="165"/>
       <c r="H27" s="42"/>
       <c r="I27" s="166" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J27" s="42"/>
       <c r="K27" s="170" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L27" s="41">
         <v>20.100000000000001</v>
@@ -7566,19 +7594,19 @@
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="140" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B28" s="164" t="s">
         <v>165</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D28" s="99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F28" s="49"/>
       <c r="G28" s="91">
@@ -7588,16 +7616,16 @@
         <v>4.9000000000000003E+23</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J28" s="8">
         <v>27.5</v>
       </c>
       <c r="K28" s="171" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L28" s="49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M28" s="111" t="s">
         <v>166</v>
@@ -7605,40 +7633,40 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="132" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="217" t="s">
         <v>231</v>
       </c>
-      <c r="B29" s="217" t="s">
-        <v>233</v>
-      </c>
       <c r="C29" s="102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D29" s="99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G29" s="92">
         <v>0.75</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K29" s="171" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M29" s="116" t="s">
         <v>36</v>
@@ -7646,28 +7674,28 @@
     </row>
     <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="132" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" s="199"/>
       <c r="C30" s="102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D30" s="99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E30" s="65"/>
       <c r="F30" s="65"/>
       <c r="G30" s="94"/>
       <c r="H30" s="13"/>
       <c r="I30" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="171" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M30" s="111" t="s">
         <v>32</v>
@@ -7679,10 +7707,10 @@
       </c>
       <c r="B31" s="134"/>
       <c r="C31" s="172" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D31" s="86" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E31" s="65"/>
       <c r="F31" s="65"/>
@@ -7691,10 +7719,10 @@
       <c r="I31" s="65"/>
       <c r="J31" s="65"/>
       <c r="K31" s="65" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M31" s="119" t="s">
         <v>146</v>
@@ -7706,7 +7734,7 @@
       </c>
       <c r="B32" s="135"/>
       <c r="C32" s="172" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D32" s="87" t="s">
         <v>60</v>
@@ -7715,7 +7743,7 @@
       <c r="F32" s="61"/>
       <c r="G32" s="97"/>
       <c r="H32" s="61" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
@@ -7723,10 +7751,10 @@
         <v>134</v>
       </c>
       <c r="L32" s="126" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M32" s="120" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8736,7 +8764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O20"/>
     </sheetView>
   </sheetViews>
@@ -8761,37 +8789,37 @@
   <sheetData>
     <row r="1" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="379" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="433"/>
+      <c r="C1" s="434" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" s="434" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="434" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="434"/>
-      <c r="C1" s="435" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1" s="435" t="s">
-        <v>494</v>
-      </c>
-      <c r="E1" s="435" t="s">
-        <v>492</v>
-      </c>
-      <c r="F1" s="436" t="s">
+      <c r="F1" s="435" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="436"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="435" t="s">
+        <v>441</v>
+      </c>
+      <c r="J1" s="437"/>
+      <c r="K1" s="436" t="s">
         <v>442</v>
       </c>
-      <c r="G1" s="437"/>
-      <c r="H1" s="438"/>
-      <c r="I1" s="436" t="s">
-        <v>443</v>
-      </c>
-      <c r="J1" s="438"/>
-      <c r="K1" s="437" t="s">
-        <v>444</v>
-      </c>
-      <c r="L1" s="437"/>
-      <c r="M1" s="438"/>
-      <c r="N1" s="434" t="s">
+      <c r="L1" s="436"/>
+      <c r="M1" s="437"/>
+      <c r="N1" s="433" t="s">
+        <v>491</v>
+      </c>
+      <c r="O1" s="441" t="s">
         <v>493</v>
-      </c>
-      <c r="O1" s="442" t="s">
-        <v>495</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -8815,7 +8843,7 @@
       <c r="D2" s="382"/>
       <c r="E2" s="382"/>
       <c r="F2" s="80" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G2" s="80" t="s">
         <v>72</v>
@@ -8824,22 +8852,22 @@
         <v>71</v>
       </c>
       <c r="I2" s="86" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="J2" s="86" t="s">
-        <v>452</v>
-      </c>
-      <c r="K2" s="445" t="s">
-        <v>450</v>
+      <c r="K2" s="444" t="s">
+        <v>448</v>
       </c>
       <c r="L2" s="86" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M2" s="86" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N2" s="381"/>
-      <c r="O2" s="443"/>
+      <c r="O2" s="442"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
       <c r="R2" s="49"/>
@@ -8864,7 +8892,7 @@
         <v>143</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E3" s="169" t="s">
         <v>69</v>
@@ -8878,7 +8906,7 @@
       <c r="H3" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="430"/>
+      <c r="I3" s="429"/>
       <c r="J3" s="78"/>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -8887,7 +8915,7 @@
         <v>152</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -8921,15 +8949,15 @@
         <v>20</v>
       </c>
       <c r="H4" s="311" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I4" s="392"/>
-      <c r="J4" s="445"/>
+      <c r="J4" s="444"/>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="326" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O4" s="37" t="s">
         <v>53</v>
@@ -8968,15 +8996,15 @@
       <c r="H5" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="446"/>
-      <c r="J5" s="447"/>
+      <c r="I5" s="445"/>
+      <c r="J5" s="446"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
       <c r="N5" s="326" t="s">
-        <v>463</v>
-      </c>
-      <c r="O5" s="440" t="s">
+        <v>461</v>
+      </c>
+      <c r="O5" s="439" t="s">
         <v>57</v>
       </c>
       <c r="P5" s="2"/>
@@ -8999,7 +9027,7 @@
       <c r="B6" s="367"/>
       <c r="C6" s="384"/>
       <c r="D6" s="225" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E6" s="311" t="s">
         <v>152</v>
@@ -9011,18 +9039,18 @@
         <v>59</v>
       </c>
       <c r="H6" s="311" t="s">
-        <v>454</v>
-      </c>
-      <c r="I6" s="448"/>
+        <v>452</v>
+      </c>
+      <c r="I6" s="447"/>
       <c r="J6" s="411"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="326" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O6" s="271" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -9056,15 +9084,15 @@
       <c r="H7" s="311" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="449"/>
-      <c r="J7" s="450"/>
+      <c r="I7" s="448"/>
+      <c r="J7" s="449"/>
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
       <c r="M7" s="74"/>
       <c r="N7" s="354" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="441" t="s">
+      <c r="O7" s="440" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9080,20 +9108,20 @@
         <v>8</v>
       </c>
       <c r="G8" s="311" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H8" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="425"/>
-      <c r="J8" s="451"/>
+      <c r="I8" s="424"/>
+      <c r="J8" s="450"/>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
       <c r="M8" s="55"/>
       <c r="N8" s="354" t="s">
-        <v>465</v>
-      </c>
-      <c r="O8" s="424" t="s">
+        <v>463</v>
+      </c>
+      <c r="O8" s="423" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9112,15 +9140,15 @@
         <v>69</v>
       </c>
       <c r="H9" s="311" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I9" s="392"/>
-      <c r="J9" s="445"/>
+      <c r="J9" s="444"/>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="354" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O9" s="51" t="s">
         <v>18</v>
@@ -9134,7 +9162,7 @@
       </c>
       <c r="D10" s="227"/>
       <c r="E10" s="169" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F10" s="402" t="s">
         <v>121</v>
@@ -9143,24 +9171,24 @@
         <v>8</v>
       </c>
       <c r="H10" s="311" t="s">
-        <v>538</v>
-      </c>
-      <c r="I10" s="452"/>
+        <v>534</v>
+      </c>
+      <c r="I10" s="451"/>
       <c r="J10" s="77"/>
-      <c r="K10" s="334" t="s">
+      <c r="K10" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="334" t="s">
+      <c r="L10" s="86" t="s">
         <v>119</v>
       </c>
       <c r="M10" s="84" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N10" s="85" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="O10" s="356" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -9173,7 +9201,7 @@
         <v>60</v>
       </c>
       <c r="E11" s="311" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F11" s="400" t="s">
         <v>8</v>
@@ -9182,22 +9210,22 @@
         <v>8</v>
       </c>
       <c r="H11" s="406" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I11" s="311" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="311" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K11" s="170"/>
       <c r="L11" s="170"/>
       <c r="M11" s="170"/>
       <c r="N11" s="103" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O11" s="313" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9205,13 +9233,13 @@
         <v>145</v>
       </c>
       <c r="B12" s="395" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C12" s="407" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="431" t="s">
-        <v>476</v>
+      <c r="D12" s="430" t="s">
+        <v>474</v>
       </c>
       <c r="E12" s="396" t="s">
         <v>121</v>
@@ -9229,19 +9257,19 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="354" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="376"/>
       <c r="B13" s="370" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C13" s="408"/>
-      <c r="D13" s="432"/>
+      <c r="D13" s="431"/>
       <c r="E13" s="386" t="s">
         <v>20</v>
       </c>
@@ -9249,10 +9277,10 @@
         <v>69</v>
       </c>
       <c r="G13" s="309" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H13" s="406" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I13" s="311" t="s">
         <v>69</v>
@@ -9264,7 +9292,7 @@
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="354" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O13" s="17" t="s">
         <v>113</v>
@@ -9274,24 +9302,24 @@
       <c r="A14" s="376"/>
       <c r="B14" s="371"/>
       <c r="C14" s="409"/>
-      <c r="D14" s="433"/>
+      <c r="D14" s="432"/>
       <c r="E14" s="354" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F14" s="287"/>
       <c r="G14" s="287"/>
       <c r="H14" s="287"/>
       <c r="I14" s="311" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J14" s="354" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K14" s="54"/>
       <c r="L14" s="54"/>
-      <c r="M14" s="439"/>
+      <c r="M14" s="438"/>
       <c r="N14" s="354" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="O14" s="53" t="s">
         <v>124</v>
@@ -9313,10 +9341,10 @@
         <v>69</v>
       </c>
       <c r="G15" s="309" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H15" s="309" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I15" s="169" t="s">
         <v>8</v>
@@ -9324,23 +9352,23 @@
       <c r="J15" s="396" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="444"/>
+      <c r="L15" s="443"/>
       <c r="M15" s="395"/>
       <c r="N15" s="395" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O15" s="53" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="376"/>
       <c r="B16" s="372"/>
-      <c r="C16" s="495" t="s">
+      <c r="C16" s="494" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="431" t="s">
-        <v>476</v>
+      <c r="D16" s="430" t="s">
+        <v>474</v>
       </c>
       <c r="E16" s="386" t="s">
         <v>126</v>
@@ -9352,21 +9380,21 @@
         <v>8</v>
       </c>
       <c r="H16" s="103" t="s">
-        <v>458</v>
-      </c>
-      <c r="I16" s="453"/>
-      <c r="J16" s="454"/>
+        <v>456</v>
+      </c>
+      <c r="I16" s="452"/>
+      <c r="J16" s="453"/>
       <c r="K16" s="395" t="s">
         <v>119</v>
       </c>
       <c r="L16" s="354" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M16" s="354" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N16" s="354" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O16" s="53" t="s">
         <v>29</v>
@@ -9374,13 +9402,13 @@
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="345" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B17" s="376"/>
       <c r="C17" s="377"/>
-      <c r="D17" s="432"/>
+      <c r="D17" s="431"/>
       <c r="E17" s="386" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F17" s="311" t="s">
         <v>69</v>
@@ -9389,9 +9417,9 @@
         <v>8</v>
       </c>
       <c r="H17" s="103" t="s">
-        <v>459</v>
-      </c>
-      <c r="I17" s="448"/>
+        <v>457</v>
+      </c>
+      <c r="I17" s="447"/>
       <c r="J17" s="411"/>
       <c r="K17" s="400" t="s">
         <v>8</v>
@@ -9399,11 +9427,11 @@
       <c r="L17" s="394" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="425" t="s">
+      <c r="M17" s="424" t="s">
         <v>164</v>
       </c>
       <c r="N17" s="354" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O17" s="21" t="s">
         <v>32</v>
@@ -9413,8 +9441,8 @@
       <c r="A18" s="346"/>
       <c r="B18" s="410"/>
       <c r="C18" s="378"/>
-      <c r="D18" s="433"/>
-      <c r="E18" s="469" t="s">
+      <c r="D18" s="432"/>
+      <c r="E18" s="468" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="310"/>
@@ -9440,11 +9468,11 @@
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="412" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B19" s="413"/>
       <c r="C19" s="414" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D19" s="326" t="s">
         <v>60</v>
@@ -9461,48 +9489,48 @@
       <c r="H19" s="311" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="455"/>
+      <c r="I19" s="454"/>
       <c r="J19" s="414"/>
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
       <c r="N19" s="326" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O19" s="51" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="417" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B20" s="418"/>
       <c r="C20" s="419" t="s">
         <v>153</v>
       </c>
       <c r="D20" s="390" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E20" s="390" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="383" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G20" s="391" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H20" s="383"/>
-      <c r="I20" s="456"/>
-      <c r="J20" s="457"/>
+      <c r="I20" s="455"/>
+      <c r="J20" s="456"/>
       <c r="K20" s="420"/>
       <c r="L20" s="420"/>
       <c r="M20" s="420"/>
-      <c r="N20" s="426" t="s">
-        <v>475</v>
-      </c>
-      <c r="O20" s="422" t="s">
+      <c r="N20" s="425" t="s">
+        <v>473</v>
+      </c>
+      <c r="O20" s="421" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10529,8 +10557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A5E12C-0FCB-47AD-9B7C-0C4D70ABFB0C}">
   <dimension ref="A1:AI1018"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10587,54 +10615,54 @@
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="337" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B2" s="337" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C2" s="337" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="564" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E2" s="567" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F2" s="558" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G2" s="559"/>
       <c r="H2" s="560"/>
       <c r="I2" s="561" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J2" s="562"/>
       <c r="K2" s="561" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L2" s="563"/>
       <c r="M2" s="562"/>
       <c r="N2" s="570" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="564" t="s">
+        <v>371</v>
+      </c>
+      <c r="P2" s="564" t="s">
         <v>372</v>
       </c>
-      <c r="O2" s="564" t="s">
+      <c r="Q2" s="564" t="s">
         <v>373</v>
       </c>
-      <c r="P2" s="564" t="s">
+      <c r="R2" s="564" t="s">
         <v>374</v>
       </c>
-      <c r="Q2" s="564" t="s">
+      <c r="S2" s="564" t="s">
         <v>375</v>
       </c>
-      <c r="R2" s="564" t="s">
+      <c r="T2" s="564" t="s">
         <v>376</v>
-      </c>
-      <c r="S2" s="564" t="s">
-        <v>377</v>
-      </c>
-      <c r="T2" s="564" t="s">
-        <v>378</v>
       </c>
       <c r="U2" s="572" t="s">
         <v>148</v>
@@ -10648,28 +10676,28 @@
       <c r="D3" s="565"/>
       <c r="E3" s="568"/>
       <c r="F3" s="555" t="s">
+        <v>427</v>
+      </c>
+      <c r="G3" s="280" t="s">
+        <v>428</v>
+      </c>
+      <c r="H3" s="556" t="s">
         <v>429</v>
       </c>
-      <c r="G3" s="280" t="s">
-        <v>430</v>
-      </c>
-      <c r="H3" s="556" t="s">
-        <v>431</v>
-      </c>
       <c r="I3" s="280" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J3" s="280" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K3" s="557" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L3" s="280" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M3" s="556" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N3" s="571"/>
       <c r="O3" s="566"/>
@@ -10696,13 +10724,13 @@
     </row>
     <row r="4" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="153" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D4" s="311">
         <v>2</v>
@@ -10741,7 +10769,7 @@
       </c>
       <c r="T4" s="295"/>
       <c r="U4" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -10760,16 +10788,16 @@
     </row>
     <row r="5" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="153" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" s="144" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="311" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E5" s="170">
         <v>3</v>
@@ -10779,7 +10807,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="543" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I5" s="296"/>
       <c r="J5" s="296"/>
@@ -10791,13 +10819,13 @@
         <v>1041603</v>
       </c>
       <c r="O5" s="283" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P5" s="281" t="s">
         <v>81</v>
       </c>
       <c r="Q5" s="281" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S5" s="283">
         <v>100</v>
@@ -10806,7 +10834,7 @@
         <v>256</v>
       </c>
       <c r="U5" s="30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -10825,10 +10853,10 @@
     </row>
     <row r="6" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="153" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>60</v>
@@ -10848,7 +10876,7 @@
       </c>
       <c r="I6" s="284"/>
       <c r="J6" s="284"/>
-      <c r="K6" s="430"/>
+      <c r="K6" s="429"/>
       <c r="L6" s="284"/>
       <c r="M6" s="402"/>
       <c r="N6" s="285">
@@ -10860,10 +10888,10 @@
         <v>81</v>
       </c>
       <c r="Q6" s="281" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R6" s="281" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="S6" s="283">
         <v>100</v>
@@ -10872,7 +10900,7 @@
         <v>10</v>
       </c>
       <c r="U6" s="30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -10891,13 +10919,13 @@
     </row>
     <row r="7" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="153" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B7" s="144" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C7" s="171" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D7" s="311">
         <v>1</v>
@@ -10926,10 +10954,10 @@
         <v>91</v>
       </c>
       <c r="Q7" s="301" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="R7" s="41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S7" s="302">
         <v>200</v>
@@ -10938,7 +10966,7 @@
         <v>50</v>
       </c>
       <c r="U7" s="161" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -10957,13 +10985,13 @@
     </row>
     <row r="8" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="153" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" s="171" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D8" s="311">
         <v>1</v>
@@ -10988,16 +11016,16 @@
         <v>117</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P8" s="297" t="s">
         <v>91</v>
       </c>
       <c r="Q8" s="301" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R8" s="41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S8" s="302">
         <v>200</v>
@@ -11006,7 +11034,7 @@
         <v>1000</v>
       </c>
       <c r="U8" s="161" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -11025,13 +11053,13 @@
     </row>
     <row r="9" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="153" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" s="144" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" s="171" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D9" s="103">
         <v>11</v>
@@ -11057,28 +11085,28 @@
         <v>91</v>
       </c>
       <c r="Q9" s="293" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R9" s="293" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="S9" s="41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="T9" s="41"/>
       <c r="U9" s="268" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="531" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B10" s="532" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C10" s="533" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D10" s="103">
         <v>11</v>
@@ -11104,28 +11132,28 @@
         <v>95</v>
       </c>
       <c r="Q10" s="41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R10" s="41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="S10" s="41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="T10" s="41"/>
       <c r="U10" s="389" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="270" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B11" s="269" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C11" s="273" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D11" s="169">
         <v>11</v>
@@ -11155,23 +11183,23 @@
       </c>
       <c r="Q11" s="166"/>
       <c r="R11" s="166" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S11" s="166"/>
       <c r="T11" s="166"/>
       <c r="U11" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="270" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" s="269" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C12" s="273" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D12" s="169">
         <v>120</v>
@@ -11184,11 +11212,11 @@
         <v>2</v>
       </c>
       <c r="H12" s="402" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I12" s="284"/>
       <c r="J12" s="284"/>
-      <c r="K12" s="430"/>
+      <c r="K12" s="429"/>
       <c r="L12" s="284"/>
       <c r="M12" s="402"/>
       <c r="N12" s="166">
@@ -11200,7 +11228,7 @@
       </c>
       <c r="P12" s="166"/>
       <c r="Q12" s="166" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R12" s="166"/>
       <c r="S12" s="287">
@@ -11208,18 +11236,18 @@
       </c>
       <c r="T12" s="166"/>
       <c r="U12" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="501" t="s">
-        <v>229</v>
+      <c r="A13" s="500" t="s">
+        <v>227</v>
       </c>
       <c r="B13" s="389" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="533" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D13" s="311">
         <v>12</v>
@@ -11245,7 +11273,7 @@
         <v>3</v>
       </c>
       <c r="M13" s="400" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="N13" s="41">
         <f>H64</f>
@@ -11264,15 +11292,15 @@
       </c>
       <c r="T13" s="41"/>
       <c r="U13" s="51" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="501" t="s">
-        <v>229</v>
+      <c r="A14" s="500" t="s">
+        <v>227</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>60</v>
@@ -11304,10 +11332,10 @@
         <v>68</v>
       </c>
       <c r="Q14" s="170" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R14" s="538" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="S14" s="289">
         <v>100</v>
@@ -11316,7 +11344,7 @@
         <v>10</v>
       </c>
       <c r="U14" s="320" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="325" customFormat="1" x14ac:dyDescent="0.35">
@@ -11327,32 +11355,32 @@
         <v>153</v>
       </c>
       <c r="C15" s="534" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D15" s="80">
         <v>100</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F15" s="535" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="H15" s="471"/>
+        <v>451</v>
+      </c>
+      <c r="H15" s="470"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="551"/>
       <c r="L15" s="25"/>
-      <c r="M15" s="471"/>
+      <c r="M15" s="470"/>
       <c r="N15" s="25">
         <f>244</f>
         <v>244</v>
       </c>
       <c r="O15" s="536" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P15" s="334"/>
       <c r="Q15" s="272">
@@ -11366,15 +11394,15 @@
         <v>40</v>
       </c>
       <c r="U15" s="353" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="160" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C16" s="58" t="s">
         <v>185</v>
@@ -11389,10 +11417,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="401" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H16" s="165" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I16" s="42">
         <v>1</v>
@@ -11408,7 +11436,7 @@
         <v>35328</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P16" s="296" t="s">
         <v>81</v>
@@ -11427,18 +11455,18 @@
         <v>64</v>
       </c>
       <c r="U16" s="53" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="160" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" s="261" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" s="274" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D17" s="311"/>
       <c r="E17" s="170"/>
@@ -11466,23 +11494,23 @@
       </c>
       <c r="Q17" s="296"/>
       <c r="R17" s="41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="S17" s="289">
         <v>20000</v>
       </c>
       <c r="T17" s="289"/>
       <c r="U17" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="160" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B18" s="262"/>
       <c r="C18" s="274" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D18" s="309">
         <v>40</v>
@@ -11513,10 +11541,10 @@
         <v>81</v>
       </c>
       <c r="Q18" s="281" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R18" s="41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="S18" s="106">
         <v>200</v>
@@ -11525,18 +11553,18 @@
         <v>10</v>
       </c>
       <c r="U18" s="53" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="268" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C19" s="274" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D19" s="312">
         <v>128</v>
@@ -11549,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="544" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I19" s="290"/>
       <c r="J19" s="290"/>
@@ -11557,10 +11585,10 @@
         <v>3</v>
       </c>
       <c r="L19" s="290" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M19" s="544" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N19" s="290">
         <f>F44</f>
@@ -11571,7 +11599,7 @@
         <v>81</v>
       </c>
       <c r="Q19" s="281" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R19" s="290"/>
       <c r="S19" s="290">
@@ -11581,7 +11609,7 @@
         <v>64</v>
       </c>
       <c r="U19" s="53" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="277" customFormat="1" x14ac:dyDescent="0.35">
@@ -11589,10 +11617,10 @@
         <v>165</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C20" s="274" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D20" s="312">
         <v>8</v>
@@ -11625,10 +11653,10 @@
         <v>81</v>
       </c>
       <c r="Q20" s="281" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R20" s="281" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="S20" s="290">
         <v>10</v>
@@ -11637,21 +11665,21 @@
         <v>10</v>
       </c>
       <c r="U20" s="54" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C21" s="522" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D21" s="326" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="103">
@@ -11659,7 +11687,7 @@
       </c>
       <c r="G21" s="166"/>
       <c r="H21" s="526" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I21" s="166"/>
       <c r="J21" s="166"/>
@@ -11685,18 +11713,18 @@
       <c r="S21" s="166"/>
       <c r="T21" s="166"/>
       <c r="U21" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="352" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="55" t="s">
-        <v>379</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>245</v>
+        <v>377</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>243</v>
       </c>
       <c r="C22" s="522" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D22" s="50">
         <v>5</v>
@@ -11712,15 +11740,15 @@
       <c r="K22" s="111">
         <v>2</v>
       </c>
-      <c r="L22" s="41">
-        <v>2</v>
+      <c r="L22" s="170" t="s">
+        <v>542</v>
       </c>
       <c r="M22" s="525">
         <v>3</v>
       </c>
       <c r="N22" s="41">
-        <f>2*M22*D22</f>
-        <v>30</v>
+        <f>M22*(9+4)</f>
+        <v>39</v>
       </c>
       <c r="O22" s="41"/>
       <c r="P22" s="41"/>
@@ -11737,7 +11765,7 @@
         <v>150</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C23" s="75" t="s">
         <v>60</v>
@@ -11770,8 +11798,8 @@
         <v>40000</v>
       </c>
       <c r="T23" s="523"/>
-      <c r="U23" s="421" t="s">
-        <v>511</v>
+      <c r="U23" s="417" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11783,18 +11811,18 @@
       </c>
       <c r="B27" s="308"/>
       <c r="C27" s="308" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D27" s="308" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E27" s="319" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="315" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B28" s="308">
         <v>100</v>
@@ -11805,7 +11833,7 @@
     </row>
     <row r="29" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="315" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B29" s="308">
         <v>8</v>
@@ -11816,7 +11844,7 @@
     </row>
     <row r="30" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="315" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B30" s="308">
         <v>1</v>
@@ -11827,7 +11855,7 @@
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="315" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B31" s="308">
         <v>4</v>
@@ -11838,7 +11866,7 @@
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="315" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B32" s="308">
         <v>1</v>
@@ -11849,7 +11877,7 @@
     </row>
     <row r="33" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="314" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B33" s="308"/>
       <c r="C33" s="317"/>
@@ -11858,7 +11886,7 @@
     </row>
     <row r="34" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="308" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B34" s="308"/>
       <c r="C34" s="317">
@@ -11877,22 +11905,22 @@
     <row r="35" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:20" s="276" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="331" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B36" s="332" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C36" s="332" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D36" s="323" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E36" s="323" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F36" s="333" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G36" s="300"/>
       <c r="H36" s="300"/>
@@ -11911,7 +11939,7 @@
     </row>
     <row r="37" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="315" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B37" s="317"/>
       <c r="C37" s="317"/>
@@ -11921,13 +11949,13 @@
     </row>
     <row r="38" spans="1:20" s="329" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="318" t="s">
+        <v>411</v>
+      </c>
+      <c r="B38" s="317" t="s">
+        <v>412</v>
+      </c>
+      <c r="C38" s="317" t="s">
         <v>413</v>
-      </c>
-      <c r="B38" s="317" t="s">
-        <v>414</v>
-      </c>
-      <c r="C38" s="317" t="s">
-        <v>415</v>
       </c>
       <c r="D38" s="318">
         <v>64</v>
@@ -11956,13 +11984,13 @@
     </row>
     <row r="39" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="318" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B39" s="317" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C39" s="317" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D39" s="316">
         <v>2</v>
@@ -11977,13 +12005,13 @@
     </row>
     <row r="40" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="318" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B40" s="317" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C40" s="317" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D40" s="316">
         <v>2</v>
@@ -11998,13 +12026,13 @@
     </row>
     <row r="41" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="318" t="s">
+        <v>421</v>
+      </c>
+      <c r="B41" s="317" t="s">
+        <v>422</v>
+      </c>
+      <c r="C41" s="317" t="s">
         <v>423</v>
-      </c>
-      <c r="B41" s="317" t="s">
-        <v>424</v>
-      </c>
-      <c r="C41" s="317" t="s">
-        <v>425</v>
       </c>
       <c r="D41" s="316"/>
       <c r="E41" s="316"/>
@@ -12015,13 +12043,13 @@
     </row>
     <row r="42" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="318" t="s">
+        <v>421</v>
+      </c>
+      <c r="B42" s="317" t="s">
         <v>423</v>
       </c>
-      <c r="B42" s="317" t="s">
-        <v>425</v>
-      </c>
       <c r="C42" s="317" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D42" s="316"/>
       <c r="E42" s="316"/>
@@ -12032,13 +12060,13 @@
     </row>
     <row r="43" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="318" t="s">
+        <v>421</v>
+      </c>
+      <c r="B43" s="317" t="s">
         <v>423</v>
       </c>
-      <c r="B43" s="317" t="s">
-        <v>425</v>
-      </c>
       <c r="C43" s="317" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D43" s="316"/>
       <c r="E43" s="316"/>
@@ -12049,7 +12077,7 @@
     </row>
     <row r="44" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="330" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B44" s="318"/>
       <c r="C44" s="316"/>
@@ -12064,22 +12092,22 @@
     <row r="45" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:20" s="276" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="331" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B46" s="332" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C46" s="332" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D46" s="323" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E46" s="323" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F46" s="333" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G46" s="300"/>
       <c r="H46" s="300"/>
@@ -12098,7 +12126,7 @@
     </row>
     <row r="47" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="315" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B47" s="317"/>
       <c r="C47" s="317"/>
@@ -12108,10 +12136,10 @@
     </row>
     <row r="48" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="318" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B48" s="317" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C48" s="317"/>
       <c r="D48" s="316">
@@ -12127,13 +12155,13 @@
     </row>
     <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="318" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B49" s="317" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C49" s="317" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D49" s="316"/>
       <c r="E49" s="316"/>
@@ -12144,10 +12172,10 @@
     </row>
     <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="318" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B50" s="317" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C50" s="317">
         <v>1</v>
@@ -12161,7 +12189,7 @@
     </row>
     <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="330" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B51" s="318"/>
       <c r="C51" s="316"/>
@@ -12176,33 +12204,33 @@
     <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="331" t="s">
+        <v>528</v>
+      </c>
+      <c r="B54" s="574" t="s">
+        <v>368</v>
+      </c>
+      <c r="C54" s="315" t="s">
+        <v>369</v>
+      </c>
+      <c r="D54" s="315" t="s">
         <v>532</v>
       </c>
-      <c r="B54" s="574" t="s">
-        <v>370</v>
-      </c>
-      <c r="C54" s="315" t="s">
-        <v>371</v>
-      </c>
-      <c r="D54" s="315" t="s">
-        <v>536</v>
-      </c>
       <c r="E54" s="332" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F54" s="323" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G54" s="323" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H54" s="333" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="314" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C55" s="308"/>
       <c r="D55" s="308"/>
@@ -12213,15 +12241,15 @@
     </row>
     <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="318" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B56" s="575" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C56" s="308"/>
       <c r="D56" s="308"/>
       <c r="E56" s="317" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F56" s="316">
         <v>1</v>
@@ -12236,15 +12264,15 @@
     </row>
     <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="318" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B57" s="575" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C57" s="308"/>
       <c r="D57" s="308"/>
       <c r="E57" s="317" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F57" s="316">
         <v>1</v>
@@ -12259,15 +12287,15 @@
     </row>
     <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="318" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B58" s="575" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C58" s="308"/>
       <c r="D58" s="308"/>
       <c r="E58" s="317" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F58" s="316">
         <v>1</v>
@@ -12294,7 +12322,7 @@
     </row>
     <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="573" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B60" s="575">
         <v>12</v>
@@ -12315,7 +12343,7 @@
     </row>
     <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="573" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B61" s="575"/>
       <c r="C61" s="308"/>
@@ -12327,7 +12355,7 @@
     </row>
     <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="573" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B62" s="575">
         <v>12</v>
@@ -12348,7 +12376,7 @@
     </row>
     <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="573" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B63" s="575">
         <v>5</v>
@@ -12369,7 +12397,7 @@
     </row>
     <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="330" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B64" s="576"/>
       <c r="C64" s="308"/>
@@ -13365,17 +13393,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863A9E87-937B-41DE-8EF0-754C146AFFD6}">
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.54296875" customWidth="1"/>
     <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="106" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" style="106" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" style="27" customWidth="1"/>
     <col min="5" max="5" width="9.26953125" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" customWidth="1"/>
@@ -13386,27 +13414,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="504" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="505"/>
+      <c r="A1" s="503" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="504"/>
       <c r="C1" s="156" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="506" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="507" t="s">
-        <v>237</v>
-      </c>
-      <c r="G1" s="507"/>
-      <c r="H1" s="508" t="s">
-        <v>372</v>
-      </c>
-      <c r="I1" s="509" t="s">
+      <c r="E1" s="505" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="506" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="506"/>
+      <c r="H1" s="507" t="s">
+        <v>370</v>
+      </c>
+      <c r="I1" s="508" t="s">
         <v>148</v>
       </c>
       <c r="J1" s="2"/>
@@ -13432,20 +13460,20 @@
       <c r="C2" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="510" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="511" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="513" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" s="511" t="s">
-        <v>313</v>
+      <c r="D2" s="509" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="510">
+        <v>20</v>
+      </c>
+      <c r="F2" s="512" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="581" t="s">
+        <v>540</v>
       </c>
       <c r="H2" s="354">
-        <v>15899200</v>
+        <v>244</v>
       </c>
       <c r="I2" s="103" t="s">
         <v>160</v>
@@ -13466,28 +13494,28 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="510" t="s">
-        <v>231</v>
+      <c r="A3" s="509" t="s">
+        <v>229</v>
       </c>
       <c r="B3" s="515" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="103" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="513" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="511">
-        <v>27.5</v>
-      </c>
-      <c r="F3" s="510" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="511" t="s">
-        <v>525</v>
-      </c>
-      <c r="H3" s="511">
+      <c r="C3" s="311" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="512" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="510">
+        <v>20</v>
+      </c>
+      <c r="F3" s="509" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="514">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H3" s="510">
         <v>630</v>
       </c>
       <c r="I3" s="103" t="s">
@@ -13495,28 +13523,28 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="510" t="s">
+      <c r="A4" s="509" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="509" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="510" t="s">
-        <v>233</v>
-      </c>
       <c r="C4" s="103" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="513" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="511" t="s">
-        <v>524</v>
-      </c>
-      <c r="F4" s="510" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="511" t="s">
-        <v>526</v>
-      </c>
-      <c r="H4" s="13">
+        <v>243</v>
+      </c>
+      <c r="D4" s="512" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="510">
+        <v>20</v>
+      </c>
+      <c r="F4" s="509" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="514">
+        <v>0.08</v>
+      </c>
+      <c r="H4" s="583">
         <v>30</v>
       </c>
       <c r="I4" s="103" t="s">
@@ -13524,202 +13552,104 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="510" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="510"/>
+      <c r="A5" s="509" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="509"/>
       <c r="C5" s="387" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="510" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="509" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="510">
+        <v>20</v>
+      </c>
+      <c r="F5" s="511" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="582">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="510">
+        <v>117</v>
+      </c>
+      <c r="I5" s="387" t="s">
+        <v>541</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="509" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="509"/>
+      <c r="C6" s="387" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="509" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="511" t="s">
-        <v>306</v>
-      </c>
-      <c r="F5" s="512" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="511" t="s">
-        <v>320</v>
-      </c>
-      <c r="H5" s="511">
-        <v>1253</v>
-      </c>
-      <c r="I5" s="103" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="510" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="510"/>
-      <c r="C6" s="387" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="510" t="s">
-        <v>240</v>
-      </c>
-      <c r="E6" s="511" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" s="512" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="511" t="s">
-        <v>319</v>
-      </c>
-      <c r="H6" s="511">
-        <v>117</v>
-      </c>
-      <c r="I6" s="388" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-    </row>
-    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="510" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="510"/>
-      <c r="C7" s="387" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="510" t="s">
-        <v>242</v>
-      </c>
-      <c r="E7" s="511" t="s">
-        <v>307</v>
-      </c>
-      <c r="F7" s="514" t="s">
-        <v>241</v>
-      </c>
-      <c r="G7" s="511" t="s">
-        <v>322</v>
-      </c>
-      <c r="H7" s="511">
+      <c r="E6" s="578">
+        <v>20</v>
+      </c>
+      <c r="F6" s="513" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="582">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="H6" s="510">
         <v>9111</v>
       </c>
+      <c r="I6" s="103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="509" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="509"/>
+      <c r="C7" s="388" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="509" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="510">
+        <v>20</v>
+      </c>
+      <c r="F7" s="512" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="514">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="510">
+        <v>15688</v>
+      </c>
       <c r="I7" s="103" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="510" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="510"/>
-      <c r="C8" s="387" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="510" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" s="511" t="s">
-        <v>306</v>
-      </c>
-      <c r="F8" s="512" t="s">
-        <v>241</v>
-      </c>
-      <c r="G8" s="511" t="s">
-        <v>320</v>
-      </c>
-      <c r="H8" s="511">
-        <v>722</v>
-      </c>
-      <c r="I8" s="103" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="510" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="510"/>
-      <c r="C9" s="388" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="510" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="511" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9" s="513" t="s">
-        <v>241</v>
-      </c>
-      <c r="G9" s="511" t="s">
-        <v>315</v>
-      </c>
-      <c r="H9" s="511"/>
-      <c r="I9" s="103" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="510" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="510"/>
-      <c r="C10" s="388" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="510" t="s">
-        <v>240</v>
-      </c>
-      <c r="E10" s="511" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" s="513" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="511" t="s">
-        <v>315</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="103" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="387" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="387"/>
-      <c r="C11" s="388" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="510" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="511" t="s">
-        <v>310</v>
-      </c>
-      <c r="F11" s="513" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="511" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="511"/>
-      <c r="I11" s="103" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14705,15 +14635,11 @@
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{863A9E87-937B-41DE-8EF0-754C146AFFD6}">
+  <autoFilter ref="A1:I7" xr:uid="{863A9E87-937B-41DE-8EF0-754C146AFFD6}">
     <filterColumn colId="5" showButton="0"/>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
-      <sortCondition ref="C1:C11"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I7">
+      <sortCondition ref="C1:C7"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
@@ -14752,9 +14678,9 @@
       </c>
       <c r="B1" s="368"/>
       <c r="C1" s="78" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1" s="494" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1" s="493" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="80" t="s">
@@ -14773,7 +14699,7 @@
         <v>49</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -14791,15 +14717,15 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="427" t="s">
+      <c r="A2" s="426" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="428"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="408" t="s">
         <v>143</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E2" s="79" t="s">
         <v>95</v>
@@ -14813,7 +14739,7 @@
       </c>
       <c r="I2" s="79"/>
       <c r="J2" s="44" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -14834,20 +14760,20 @@
       <c r="A3" s="339"/>
       <c r="B3" s="367"/>
       <c r="C3" s="408"/>
-      <c r="D3" s="468" t="s">
+      <c r="D3" s="467" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="496" t="s">
+      <c r="E3" s="495" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="470" t="s">
+      <c r="F3" s="469" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="476"/>
-      <c r="H3" s="478" t="s">
+      <c r="G3" s="475"/>
+      <c r="H3" s="477" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="478" t="s">
+      <c r="I3" s="477" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="30" t="s">
@@ -14876,16 +14802,16 @@
         <v>60</v>
       </c>
       <c r="E4" s="202"/>
-      <c r="F4" s="470" t="s">
+      <c r="F4" s="469" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="474" t="s">
+      <c r="G4" s="473" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="478" t="s">
+      <c r="H4" s="477" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="478" t="s">
+      <c r="I4" s="477" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="30" t="s">
@@ -14911,7 +14837,7 @@
       <c r="B5" s="367"/>
       <c r="C5" s="408"/>
       <c r="D5" s="225" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E5" s="200" t="s">
         <v>91</v>
@@ -14922,10 +14848,10 @@
       <c r="G5" s="394" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="479" t="s">
+      <c r="H5" s="478" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="485" t="s">
+      <c r="I5" s="484" t="s">
         <v>78</v>
       </c>
       <c r="J5" s="161" t="s">
@@ -14956,12 +14882,12 @@
       <c r="G6" s="394" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="480"/>
-      <c r="I6" s="486" t="s">
-        <v>383</v>
+      <c r="H6" s="479"/>
+      <c r="I6" s="485" t="s">
+        <v>381</v>
       </c>
       <c r="J6" s="271" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -15020,7 +14946,7 @@
       <c r="C9" s="408"/>
       <c r="D9" s="226"/>
       <c r="E9" s="201"/>
-      <c r="F9" s="451"/>
+      <c r="F9" s="450"/>
       <c r="G9" s="394" t="s">
         <v>88</v>
       </c>
@@ -15035,15 +14961,15 @@
       <c r="B10" s="367"/>
       <c r="C10" s="409"/>
       <c r="D10" s="226"/>
-      <c r="E10" s="475"/>
-      <c r="F10" s="471" t="s">
+      <c r="E10" s="474"/>
+      <c r="F10" s="470" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="475"/>
-      <c r="H10" s="476" t="s">
+      <c r="G10" s="474"/>
+      <c r="H10" s="475" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="487"/>
+      <c r="I10" s="486"/>
       <c r="J10" s="26" t="s">
         <v>18</v>
       </c>
@@ -15059,15 +14985,15 @@
         <v>68</v>
       </c>
       <c r="F11" s="373"/>
-      <c r="G11" s="474" t="s">
-        <v>529</v>
-      </c>
-      <c r="H11" s="476" t="s">
+      <c r="G11" s="473" t="s">
+        <v>525</v>
+      </c>
+      <c r="H11" s="475" t="s">
         <v>54</v>
       </c>
       <c r="I11" s="540"/>
       <c r="J11" s="51" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -15080,20 +15006,20 @@
         <v>60</v>
       </c>
       <c r="E12" s="193"/>
-      <c r="F12" s="470" t="s">
+      <c r="F12" s="469" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="474" t="s">
+      <c r="G12" s="473" t="s">
+        <v>386</v>
+      </c>
+      <c r="H12" s="480" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="480" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="313" t="s">
         <v>388</v>
-      </c>
-      <c r="H12" s="481" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="481" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="313" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15103,47 +15029,47 @@
       <c r="B13" s="369" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="495" t="s">
+      <c r="C13" s="494" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="416" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E13" s="191" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="492" t="s">
+      <c r="F13" s="491" t="s">
         <v>86</v>
       </c>
       <c r="G13" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="493" t="s">
+      <c r="H13" s="492" t="s">
         <v>59</v>
       </c>
       <c r="I13" s="326" t="s">
         <v>59</v>
       </c>
       <c r="J13" s="51" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="345"/>
       <c r="B14" s="370" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C14" s="377"/>
-      <c r="D14" s="423"/>
+      <c r="D14" s="422"/>
       <c r="E14" s="192"/>
-      <c r="F14" s="472"/>
+      <c r="F14" s="471"/>
       <c r="G14" s="354" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="482" t="s">
-        <v>403</v>
-      </c>
-      <c r="I14" s="488"/>
+      <c r="H14" s="481" t="s">
+        <v>401</v>
+      </c>
+      <c r="I14" s="487"/>
       <c r="J14" s="17" t="s">
         <v>113</v>
       </c>
@@ -15154,7 +15080,7 @@
       <c r="C15" s="378"/>
       <c r="D15" s="415"/>
       <c r="E15" s="193"/>
-      <c r="F15" s="463" t="s">
+      <c r="F15" s="462" t="s">
         <v>86</v>
       </c>
       <c r="G15" s="354" t="s">
@@ -15173,7 +15099,7 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="345"/>
       <c r="B16" s="371"/>
-      <c r="C16" s="464" t="s">
+      <c r="C16" s="463" t="s">
         <v>133</v>
       </c>
       <c r="D16" s="386" t="s">
@@ -15182,18 +15108,18 @@
       <c r="E16" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="447" t="s">
+      <c r="F16" s="446" t="s">
         <v>173</v>
       </c>
       <c r="G16" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="H16" s="483" t="s">
+      <c r="H16" s="482" t="s">
         <v>174</v>
       </c>
-      <c r="I16" s="489"/>
+      <c r="I16" s="488"/>
       <c r="J16" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -15202,17 +15128,17 @@
       <c r="C17" s="395" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="432" t="s">
-        <v>476</v>
-      </c>
-      <c r="E17" s="468" t="s">
+      <c r="D17" s="431" t="s">
+        <v>474</v>
+      </c>
+      <c r="E17" s="467" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="463" t="s">
+      <c r="F17" s="462" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="477"/>
-      <c r="H17" s="477" t="s">
+      <c r="G17" s="476"/>
+      <c r="H17" s="476" t="s">
         <v>90</v>
       </c>
       <c r="I17" s="326" t="s">
@@ -15224,13 +15150,13 @@
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="186" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B18" s="372"/>
       <c r="C18" s="411" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="433"/>
+      <c r="D18" s="432"/>
       <c r="E18" s="396" t="s">
         <v>131</v>
       </c>
@@ -15243,25 +15169,25 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="466" t="s">
+      <c r="A19" s="465" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="491"/>
-      <c r="C19" s="467" t="s">
+      <c r="B19" s="490"/>
+      <c r="C19" s="466" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="403" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="403"/>
-      <c r="F19" s="467"/>
+      <c r="F19" s="466"/>
       <c r="G19" s="403"/>
       <c r="H19" s="403" t="s">
         <v>151</v>
       </c>
       <c r="I19" s="403"/>
       <c r="J19" s="18" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15269,22 +15195,22 @@
         <v>70</v>
       </c>
       <c r="B20" s="374"/>
-      <c r="C20" s="465" t="s">
+      <c r="C20" s="464" t="s">
         <v>153</v>
       </c>
       <c r="D20" s="404" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E20" s="405"/>
-      <c r="F20" s="473" t="s">
+      <c r="F20" s="472" t="s">
         <v>158</v>
       </c>
       <c r="G20" s="405"/>
-      <c r="H20" s="484" t="s">
+      <c r="H20" s="483" t="s">
         <v>159</v>
       </c>
-      <c r="I20" s="490" t="s">
-        <v>393</v>
+      <c r="I20" s="489" t="s">
+        <v>391</v>
       </c>
       <c r="J20" s="366" t="s">
         <v>160</v>
@@ -16384,17 +16310,17 @@
         <v>41</v>
       </c>
       <c r="E2" s="342" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F2" s="342"/>
       <c r="G2" s="342"/>
       <c r="H2" s="342"/>
       <c r="I2" s="347" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J2" s="347"/>
       <c r="K2" s="341" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L2" s="341"/>
       <c r="M2" s="341"/>
@@ -16443,10 +16369,10 @@
       <c r="C3" s="338"/>
       <c r="D3" s="339"/>
       <c r="E3" s="31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>72</v>
@@ -16458,16 +16384,16 @@
         <v>118</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K3" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="M3" s="31" t="s">
         <v>445</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>447</v>
       </c>
       <c r="N3" s="334"/>
       <c r="O3" s="31"/>
@@ -16559,7 +16485,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="281" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="67" t="s">
@@ -16749,10 +16675,10 @@
       </c>
       <c r="S8" s="306"/>
       <c r="T8" s="307" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U8" s="271" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -16847,7 +16773,7 @@
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H11" s="55" t="s">
         <v>59</v>
@@ -16953,7 +16879,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="284" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>8</v>
@@ -16968,7 +16894,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="311" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K15" s="170"/>
       <c r="L15" s="170"/>
@@ -16984,7 +16910,7 @@
         <v>86</v>
       </c>
       <c r="R15" s="40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="S15" s="39" t="s">
         <v>54</v>
@@ -16993,7 +16919,7 @@
         <v>59</v>
       </c>
       <c r="U15" s="313" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
@@ -17048,7 +16974,7 @@
     <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="345"/>
       <c r="B17" s="184" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C17" s="350"/>
       <c r="D17" s="275"/>
@@ -17077,7 +17003,7 @@
         <v>115</v>
       </c>
       <c r="S17" s="320" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T17" s="37"/>
       <c r="U17" s="17" t="s">
@@ -17272,7 +17198,7 @@
       </c>
       <c r="T22" s="358"/>
       <c r="U22" s="335" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17310,7 +17236,7 @@
         <v>159</v>
       </c>
       <c r="T23" s="366" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="U23" s="365" t="s">
         <v>160</v>
